--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3199815.609655641</v>
+        <v>3197438.982708274</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6361171805618027</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>4.298253475335991</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>223.0853032785673</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.4227759882135</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>56.01246561959189</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.3332554667399</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4496987473635</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138457</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1587.556048344952</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C2" t="n">
-        <v>1218.59353140454</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D2" t="n">
-        <v>860.3278327977901</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E2" t="n">
-        <v>474.5395801995458</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>63.55367540993825</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.88932917463119</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.88932917463119</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.556048344952</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.1023241168326</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>350.1023241168326</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1632.10444989739</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1342.986112401228</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1088.301624195341</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>798.8844541583801</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>570.8949032603628</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.1023241168326</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.739488336033</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.776971395621</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.511272788871</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.723020190627</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.339328400155</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7955294637</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C7" t="n">
-        <v>172.7955294637</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="D7" t="n">
-        <v>172.7955294637</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="E7" t="n">
-        <v>172.7955294637</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>172.7955294637</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4723,25 +4723,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374698</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939397</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1416.181083656476</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5185,16 +5185,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5264,31 +5264,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,16 +5297,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,16 +5604,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637304</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,40 +6449,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637304</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797183</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438179</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7418,19 +7418,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.386875345992</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1918.296605585279</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>732861.1892126809</v>
+        <v>732861.189212681</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>732861.189212681</v>
+        <v>732861.1892126809</v>
       </c>
     </row>
     <row r="4">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.274728755</v>
-      </c>
       <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426732009</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731965</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731966</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
-        <v>8117.312426732027</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426732039</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426732039</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732008</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732069</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731945</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="O4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731976</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623596.0076463798</v>
+        <v>-623596.0076463806</v>
       </c>
       <c r="C6" t="n">
-        <v>491155.7759295397</v>
+        <v>491155.7759295392</v>
       </c>
       <c r="D6" t="n">
-        <v>491155.775929539</v>
+        <v>491155.7759295394</v>
       </c>
       <c r="E6" t="n">
-        <v>89527.99085357077</v>
+        <v>89493.25292813517</v>
       </c>
       <c r="F6" t="n">
-        <v>597013.4324781161</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="G6" t="n">
-        <v>597013.4324781164</v>
+        <v>596978.6945526806</v>
       </c>
       <c r="H6" t="n">
-        <v>597013.4324781167</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="I6" t="n">
-        <v>597013.4324781164</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="J6" t="n">
-        <v>429408.2546681337</v>
+        <v>429373.5167426978</v>
       </c>
       <c r="K6" t="n">
-        <v>597013.4324781159</v>
+        <v>596978.6945526806</v>
       </c>
       <c r="L6" t="n">
-        <v>597013.4324781162</v>
+        <v>596978.6945526808</v>
       </c>
       <c r="M6" t="n">
-        <v>464406.1387491898</v>
+        <v>464371.4008237543</v>
       </c>
       <c r="N6" t="n">
-        <v>597013.4324781166</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="O6" t="n">
-        <v>597013.432478116</v>
+        <v>596978.6945526805</v>
       </c>
       <c r="P6" t="n">
-        <v>597013.4324781166</v>
+        <v>596978.6945526806</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241344</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.0737954919087</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>216.4504425218759</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>183.7907424631441</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.3083246902555</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.42149702697728</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>45.97334457806429</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,13 +27822,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.8231930236441</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807686</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227453</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,31 +32792,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6713445158004</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>253.6713445158004</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>253.6713445158004</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,34 +33500,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>253.6713445158004</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,34 +33737,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460052</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622667</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>539.5330155967679</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975237</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530514</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35264,7 +35264,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>528.7520287839574</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>122.3296324324671</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>122.3296324324671</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>122.3296324324671</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>122.3296324324671</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243185</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402485</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>405.5586081824376</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,7 +38111,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831934</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
